--- a/simple-donations.xlsx
+++ b/simple-donations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thixpin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BFD9E5FE-144C-2342-96B8-A4A75D723281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AEFE44-10C4-EA4F-936A-665B95CC99BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{A899CBAC-C55E-5148-B7F3-D9F8E346B608}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -37,49 +37,64 @@
     <t>donate_date</t>
   </si>
   <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>One-time donation for healthcare</t>
-  </si>
-  <si>
-    <t>Five Thousand Kyats</t>
-  </si>
-  <si>
     <t>Mike Johnson</t>
   </si>
   <si>
     <t>Annual donation for children</t>
   </si>
   <si>
-    <t>Two Thousand Kyats</t>
-  </si>
-  <si>
     <t>Sarah Williams</t>
   </si>
   <si>
     <t>Donation for emergency relief</t>
   </si>
   <si>
-    <t>Three Thousand Kyats</t>
-  </si>
-  <si>
     <t>David Brown</t>
   </si>
   <si>
     <t>Regular donation for food</t>
   </si>
   <si>
-    <t>One Thousand Five Hundred Kyats</t>
-  </si>
-  <si>
-    <t>မင်းမော်ကွန်း</t>
-  </si>
-  <si>
-    <t>အဖေနဲ့သားများ</t>
-  </si>
-  <si>
     <t>တစ်သိန်းကျပ်</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>MMK</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>Two Thousand Bath</t>
+  </si>
+  <si>
+    <t>ငါးထောင်ကျပ်</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Three Thousand SGD</t>
+  </si>
+  <si>
+    <t>Two Hundred  Dollar</t>
+  </si>
+  <si>
+    <t>မိသားစု</t>
+  </si>
+  <si>
+    <t>ဂျွန်ဒိုး</t>
+  </si>
+  <si>
+    <t>မောင်မောင်</t>
+  </si>
+  <si>
+    <t>ဦးဘအား ရည်စူး၍</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -87,7 +102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -568,7 +583,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -944,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0692D25B-DEAD-FA4F-AB82-C950E2C6E289}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,11 +970,12 @@
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -970,94 +986,112 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1000000</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
         <v>45380</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>5000</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
         <v>45379</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2000</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
         <v>45378</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>3000</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
         <v>45377</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
         <v>45376</v>
       </c>
     </row>
